--- a/data/HR1/Market Data/cs1_market_data_2050.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1\market data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E5044-9664-49CB-9890-5C5B9D50DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090829F-1E3B-4537-973B-A46AF5F23FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -1202,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/data/HR1/Market Data/cs1_market_data_2050.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B090829F-1E3B-4537-973B-A46AF5F23FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73771F15-8BA5-4CB9-996F-9807661F8196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -146,6 +146,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Market Costs, Summer"/>
@@ -155,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.2500000000000001E-2</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1418,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.0406050943526</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>277.83879710536797</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>295.01308032921662</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.030974345125</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>312.96784041754097</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>316.16138980955668</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.58074163350955</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>300.19364284947807</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>293.80654406544659</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.03234649738374</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.80987604005415</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1519,99 +1522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.78857483963492</v>
+        <v>186.54318174524218</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>263.94685725009958</v>
+        <v>181.82999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>280.26242631275579</v>
+        <v>193.06961070637698</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.72942562786875</v>
+        <v>200.28020796559579</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>303.38719224149384</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.31944839666392</v>
+        <v>204.82000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>300.35332031907882</v>
+        <v>206.91</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>303.38719224149384</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>291.25170455183405</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>273.04847301734441</v>
+        <v>188.10000000000002</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.08234493975931</v>
+        <v>190.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.15008878458923</v>
+        <v>194.37</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.18396070700413</v>
+        <v>196.46</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.15008878458923</v>
+        <v>194.37</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.08234493975931</v>
+        <v>190.19</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.08234493975931</v>
+        <v>190.19</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.11621686217427</v>
+        <v>192.28</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.15008878458923</v>
+        <v>194.37</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.98072917251454</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.01938223805141</v>
+        <v>167.41329952822622</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1620,99 +1623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.0406050943526</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>277.83879710536797</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>295.01308032921662</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.030974345125</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>312.96784041754097</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>316.16138980955668</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.58074163350955</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>300.19364284947807</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>293.80654406544659</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.03234649738374</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.80987604005415</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1721,99 +1724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>299.29263534907022</v>
+        <v>206.17930613947823</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>291.73073696063642</v>
+        <v>200.97000000000003</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>309.76373434567751</v>
+        <v>213.39272762283775</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>321.33252306238126</v>
+        <v>221.36233511986907</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>335.32268616165106</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>328.61623243841802</v>
+        <v>226.38000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>331.96945930003454</v>
+        <v>228.69000000000003</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>335.32268616165106</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>321.90977871518498</v>
+        <v>221.76000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>301.79041754548598</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.1436444071025</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>311.85009813033548</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>315.203324991952</v>
+        <v>217.14000000000001</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>311.85009813033548</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.1436444071025</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.1436444071025</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>308.49687126871896</v>
+        <v>212.52</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>311.85009813033548</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>295.08396382225294</v>
+        <v>203.28000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>268.60036984205692</v>
+        <v>185.03575211014481</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1822,99 +1825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>313.54466560378791</v>
+        <v>215.99736833659625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.62267681590481</v>
+        <v>210.54000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>324.51438836213833</v>
+        <v>223.55428608106811</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>336.63407177963751</v>
+        <v>231.90339869700568</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>351.29043312172973</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>344.26462445929513</v>
+        <v>237.16000000000005</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>347.77752879051241</v>
+        <v>239.58000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>351.29043312172973</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>337.23881579686054</v>
+        <v>232.32000000000005</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>316.16138980955674</v>
+        <v>217.80000000000004</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.67429414077401</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>326.70010280320861</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>330.21300713442588</v>
+        <v>227.48000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>326.70010280320861</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.67429414077401</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.67429414077401</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>323.18719847199128</v>
+        <v>222.64000000000001</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>326.70010280320861</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>309.13558114712214</v>
+        <v>212.96000000000004</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.39086364405961</v>
+        <v>193.84697840110408</v>
       </c>
     </row>
   </sheetData>
@@ -2018,99 +2021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.215040531743</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.32265217711924</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.37433845117721</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.38897900964773</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.06459670526078</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.67750075327365</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.83878860923505</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.16136432115786</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.61298051320935</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>240.38717241718356</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.93555622513213</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.29898948731702</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2119,99 +2122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.55428850515582</v>
+        <v>152.62623960974358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.95651956826327</v>
+        <v>148.76999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.30562152861836</v>
+        <v>157.96604512339934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.86953005916533</v>
+        <v>163.86562469912383</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.22588456122219</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.26136686999772</v>
+        <v>167.57999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.74362571560999</v>
+        <v>169.29000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.22588456122219</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.2968491787733</v>
+        <v>164.16</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.40329610509997</v>
+        <v>153.9</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.88555495071219</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.85007264193663</v>
+        <v>159.03</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.33233148754886</v>
+        <v>160.74</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.85007264193663</v>
+        <v>159.03</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.88555495071219</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.88555495071219</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.36781379632438</v>
+        <v>157.32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.85007264193663</v>
+        <v>159.03</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.4387784138755</v>
+        <v>150.47999999999999</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.83404001295114</v>
+        <v>136.97451779582144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2220,99 +2223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.215040531743</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.32265217711924</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.37433845117721</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.38897900964773</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.06459670526078</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.67750075327365</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.83878860923505</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.16136432115786</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.61298051320935</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>240.38717241718356</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.93555622513213</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.29898948731702</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2321,99 +2324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.87579255833015</v>
+        <v>168.69215956866398</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.68878478597523</v>
+        <v>164.43</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.44305537373609</v>
+        <v>174.59404987323086</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.9084279601301</v>
+        <v>181.11463782534742</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.35492504135084</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>268.86782654052388</v>
+        <v>185.22000000000003</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>271.61137579093736</v>
+        <v>187.11</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.35492504135084</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>263.38072803969686</v>
+        <v>181.44000000000003</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.91943253721573</v>
+        <v>170.1</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.15008028845628</v>
+        <v>175.77</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.89362953886979</v>
+        <v>177.66000000000003</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.15008028845628</v>
+        <v>175.77</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.66298178762926</v>
+        <v>171.99</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.66298178762926</v>
+        <v>171.99</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>252.40653103804274</v>
+        <v>173.88</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.15008028845628</v>
+        <v>175.77</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.43233403638877</v>
+        <v>166.32000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.76393896168287</v>
+        <v>151.39288809011845</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2422,99 +2425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.53654458491735</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.05491739483122</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.51177229629496</v>
+        <v>182.90805224814662</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42787691061255</v>
+        <v>189.73914438845921</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.67105637578686</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>284.54525082860107</v>
+        <v>196.02000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.92266747015861</v>
+        <v>190.08000000000004</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.67750075327365</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55169520608786</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.3000841117161</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.17427856453031</v>
+        <v>186.12000000000003</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.3000841117161</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55169520608786</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55169520608786</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>264.42588965890195</v>
+        <v>182.16</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.3000841117161</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>252.92911184764534</v>
+        <v>174.24</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.22888843604872</v>
+        <v>158.60207323726695</v>
       </c>
     </row>
   </sheetData>
@@ -2618,99 +2621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.12782281304777</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.91263545164739</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>241.788033583783</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.79994012760432</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.1293046129972</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>247.16420681606979</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.19370939019689</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>278.20997667738635</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>290.32267200142945</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>275.26565996784979</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>269.01364568905524</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.32238214389054</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.5579076783095</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.02740854684518</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.22677153542813</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.53898290488735</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.34915883143199</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.36150828962539</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.80268227031715</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.30456465639861</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.53150550478722</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.18675956094904</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.47146147095566</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.55443276368555</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2719,99 +2722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.17143167239536</v>
+        <v>169.58471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.56700367906501</v>
+        <v>161.59055168651113</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>229.69863190459387</v>
+        <v>158.2367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>223.05994312122408</v>
+        <v>153.66346801887096</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.27283938234734</v>
+        <v>155.18790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.80599647526631</v>
+        <v>161.75519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>254.78402392068708</v>
+        <v>175.51782791488816</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>264.29947784351702</v>
+        <v>182.07291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>275.80653840135795</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>261.50237696945726</v>
+        <v>180.14602522545653</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>255.56296340460247</v>
+        <v>176.05443050162074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.10626303669599</v>
+        <v>159.89537533296965</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.680012294394</v>
+        <v>155.46840399242595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.87603811950291</v>
+        <v>132.87011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200.66543295865671</v>
+        <v>138.23614365030969</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.96203375964296</v>
+        <v>125.35158381206071</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.03170088986039</v>
+        <v>121.95513334831028</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.09343287514412</v>
+        <v>121.30877114156424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.41254815680128</v>
+        <v>122.9063833884271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.6393364235787</v>
+        <v>139.59594338714336</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.60493022954785</v>
+        <v>169.19445425077831</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.27742158290161</v>
+        <v>168.96883725408392</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.24788839740785</v>
+        <v>159.99293943964827</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.92671112550127</v>
+        <v>152.19390866202383</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2820,99 +2823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.12782281304777</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.91263545164739</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>241.788033583783</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.79994012760432</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.1293046129972</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>247.16420681606979</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.19370939019689</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>278.20997667738635</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>290.32267200142945</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>275.26565996784979</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>269.01364568905524</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.32238214389054</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.5579076783095</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.02740854684518</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.22677153542813</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.53898290488735</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.34915883143199</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.36150828962539</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.80268227031715</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.30456465639861</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.53150550478722</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.18675956094904</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.47146147095566</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.55443276368555</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2921,99 +2924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>272.08421395370016</v>
+        <v>187.43573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.25826722422977</v>
+        <v>178.600083442986</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>253.87743526297214</v>
+        <v>174.89328925832024</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.53993713398455</v>
+        <v>169.83856991559423</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>248.98576984364706</v>
+        <v>171.52347636316955</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.5224171568733</v>
+        <v>178.78205333932411</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>281.60339485970673</v>
+        <v>193.99338874803428</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>292.12047551125568</v>
+        <v>201.23848647260823</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>304.83880560150089</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>289.02894296624231</v>
+        <v>199.10876472287305</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>282.46432797350803</v>
+        <v>194.58647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.53850125108505</v>
+        <v>176.72646747328224</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>249.43580306222498</v>
+        <v>171.83349914952342</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.17877897418745</v>
+        <v>146.85644597066661</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>221.78811011219955</v>
+        <v>152.78731666613177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.1159320501317</v>
+        <v>138.546487371225</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.66661677300362</v>
+        <v>134.79251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.62958370410666</v>
+        <v>134.07811547225521</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.19281638383302</v>
+        <v>135.84389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>223.96979288921855</v>
+        <v>154.29025321736898</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.45808078002653</v>
+        <v>187.0043968034918</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.0960975389965</v>
+        <v>186.75503064925064</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.69503454450347</v>
+        <v>176.83430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.18215440186984</v>
+        <v>168.2143201001316</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3022,99 +3025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>285.0406050943526</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.60389899681218</v>
+        <v>187.10484932122344</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>265.96683694216136</v>
+        <v>183.22154112776408</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.27993414036479</v>
+        <v>177.92612086395587</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>260.84223507429692</v>
+        <v>179.69126095189193</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.88062749767681</v>
+        <v>187.29548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>295.01308032921662</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>306.030974345125</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>302.79222596463478</v>
+        <v>208.59013447158128</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>295.91501025796077</v>
+        <v>203.85249847556088</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.75462035827962</v>
+        <v>185.14201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>261.31369844614045</v>
+        <v>180.01604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>223.3301494015297</v>
+        <v>153.84961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.34944868897097</v>
+        <v>160.06290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.69288119537609</v>
+        <v>145.14393915080714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>204.98407471457523</v>
+        <v>141.21120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.89765911858797</v>
+        <v>140.46278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>206.58295049734886</v>
+        <v>142.3126544497577</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.63502112203849</v>
+        <v>161.6374081324818</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>284.38465605526596</v>
+        <v>195.90936807984858</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>284.00543551704396</v>
+        <v>195.64812734683403</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.91860761805123</v>
+        <v>185.25498250906645</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>255.80987604005415</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3218,99 +3221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.912782281304775</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.691263545164741</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.178803358378303</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.479994012760429</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.712930461299724</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.71642068160698</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.819370939019691</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.820997667738634</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.032267200142947</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.526565996784978</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.901364568905525</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.432238214389052</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.755790767830948</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.302740854684519</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.122677153542813</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.153898290488737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.634915883143201</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.536150828962541</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.780268227031716</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.330456465639863</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.85315055047872</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.818675956094907</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.447146147095566</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.255443276368556</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3319,99 +3322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.617143167239536</v>
+        <v>16.958471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.456700367906503</v>
+        <v>16.159055168651115</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.969863190459385</v>
+        <v>15.82367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.305994312122408</v>
+        <v>15.366346801887095</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.527283938234735</v>
+        <v>15.518790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.480599647526631</v>
+        <v>16.175519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.478402392068705</v>
+        <v>17.551782791488815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.429947784351704</v>
+        <v>18.207291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.580653840135799</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.15023769694573</v>
+        <v>18.014602522545655</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.55629634046025</v>
+        <v>17.605443050162076</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.210626303669599</v>
+        <v>15.989537533296964</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.5680012294394</v>
+        <v>15.546840399242594</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.287603811950291</v>
+        <v>13.287011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.066543295865671</v>
+        <v>13.823614365030968</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.196203375964298</v>
+        <v>12.535158381206072</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.703170088986042</v>
+        <v>12.195513334831031</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.609343287514413</v>
+        <v>12.130877114156425</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.841254815680131</v>
+        <v>12.290638338842712</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.26393364235787</v>
+        <v>13.959594338714338</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.560493022954784</v>
+        <v>16.919445425077829</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.527742158290163</v>
+        <v>16.896883725408394</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.224788839740786</v>
+        <v>15.999293943964828</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.092671112550125</v>
+        <v>15.219390866202382</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3420,99 +3423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.912782281304775</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.691263545164741</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.178803358378303</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.479994012760429</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.712930461299724</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.71642068160698</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.819370939019691</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.820997667738634</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.032267200142947</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.526565996784978</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.901364568905525</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.432238214389052</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.755790767830948</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.302740854684519</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.122677153542813</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.153898290488737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.634915883143201</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.536150828962541</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.780268227031716</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.330456465639863</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.85315055047872</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.818675956094907</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.447146147095566</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.255443276368556</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3521,99 +3524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.208421395370017</v>
+        <v>18.743573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.925826722422975</v>
+        <v>17.860008344298599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.387743526297218</v>
+        <v>17.489328925832027</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.653993713398457</v>
+        <v>16.983856991559424</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.898576984364709</v>
+        <v>17.152347636316957</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.952241715687329</v>
+        <v>17.87820533393241</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.160339485970677</v>
+        <v>19.39933887480343</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.212047551125565</v>
+        <v>20.123848647260822</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.483880560150091</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.902894296624225</v>
+        <v>19.910876472287303</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.246432797350799</v>
+        <v>19.458647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.653850125108509</v>
+        <v>17.672646747328226</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.943580306222497</v>
+        <v>17.183349914952341</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.317877897418747</v>
+        <v>14.685644597066663</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.178811011219956</v>
+        <v>15.278731666613178</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.111593205013172</v>
+        <v>13.854648737122501</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.56666167730036</v>
+        <v>13.479251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.462958370410668</v>
+        <v>13.407811547225522</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.719281638383301</v>
+        <v>13.584389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.396979288921855</v>
+        <v>15.4290253217369</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.145808078002656</v>
+        <v>18.700439680349181</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.109609753899655</v>
+        <v>18.675503064925067</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.669503454450343</v>
+        <v>17.683430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.418215440186987</v>
+        <v>16.821432010013162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3622,99 +3625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.504060509435259</v>
+        <v>19.63612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.160389899681217</v>
+        <v>18.710484932122345</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.596683694216136</v>
+        <v>18.32215411277641</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.827993414036474</v>
+        <v>17.792612086395586</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.084223507429698</v>
+        <v>17.969126095189196</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.188062749767681</v>
+        <v>18.729548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.501308032921663</v>
+        <v>20.323116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.603097434512502</v>
+        <v>21.082127154273245</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.935493920157239</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.279222596463477</v>
+        <v>20.859013447158127</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.591501025796081</v>
+        <v>20.385249847556089</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.875462035827962</v>
+        <v>18.514201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.131369844614042</v>
+        <v>18.001604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.333014940152971</v>
+        <v>15.384961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.234944868897099</v>
+        <v>16.006290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.069288119537614</v>
+        <v>14.514393915080717</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.498407471457522</v>
+        <v>14.121120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.389765911858795</v>
+        <v>14.046278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.658295049734889</v>
+        <v>14.231265444975772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.463502112203852</v>
+        <v>16.163740813248182</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.438465605526595</v>
+        <v>19.590936807984857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.400543551704398</v>
+        <v>19.564812734683404</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.891860761805127</v>
+        <v>18.525498250906647</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.580987604005415</v>
+        <v>17.622452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -3818,99 +3821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.258080960257303</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.064534400285893</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.677435616254442</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.935499584245861</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.451627520228712</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.032272864231579</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.354854240243007</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.096790272251589</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3919,99 +3922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.234286334479073</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.234286334479073</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.64517691224443</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.196789989047147</v>
+        <v>34.58</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.234286334479073</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>55.161307680271598</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.196789989047147</v>
+        <v>34.58</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.093563835441721</v>
+        <v>33.82</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.43872460503357</v>
+        <v>32.68</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.232272297822703</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.129046144217277</v>
+        <v>30.4</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.680659221020001</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.232272297822703</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.232272297822703</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.887111528230854</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.541950758639004</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4020,99 +4023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.258080960257303</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.064534400285893</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.677435616254442</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.935499584245861</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.451627520228712</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.032272864231579</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.354854240243007</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.096790272251589</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4121,99 +4124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.416842790740034</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.416842790740034</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.870985008270175</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>55.480662619473165</v>
+        <v>38.22</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.416842790740034</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>60.967761120300182</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>55.480662619473165</v>
+        <v>38.22</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.261307397067171</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.432274563458158</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.993564118646148</v>
+        <v>34.44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.383886507443165</v>
+        <v>34.02000000000001</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.993564118646148</v>
+        <v>34.44</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.993564118646148</v>
+        <v>34.44</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.822596952255161</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4222,99 +4225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.008121018870519</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.008121018870519</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.483889056283033</v>
+        <v>39.6</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.122598934686174</v>
+        <v>40.04</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.008121018870519</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>63.870987840314477</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.122598934686174</v>
+        <v>40.04</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>56.845179177879892</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.929049542670455</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.37421002905787</v>
+        <v>36.08</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.096790272251589</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.735500150654737</v>
+        <v>35.640000000000008</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.37421002905787</v>
+        <v>36.08</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.37421002905787</v>
+        <v>36.08</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.290339664267314</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>56.206469299476751</v>
+        <v>38.720000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -4418,99 +4421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.0406050943526</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>277.83879710536797</v>
+        <v>191.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>295.01308032921662</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.030974345125</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>312.96784041754097</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>316.16138980955668</v>
+        <v>217.8</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.58074163350955</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>300.19364284947807</v>
+        <v>206.8</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>293.80654406544659</v>
+        <v>202.4</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.03234649738374</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.80987604005415</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4519,99 +4522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.78857483963492</v>
+        <v>186.54318174524218</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>263.94685725009958</v>
+        <v>181.82999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>260.91298532768468</v>
+        <v>179.74</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>280.26242631275579</v>
+        <v>193.06961070637698</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.72942562786875</v>
+        <v>200.28020796559579</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>303.38719224149384</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.31944839666392</v>
+        <v>204.82000000000002</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>300.35332031907882</v>
+        <v>206.91</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>303.38719224149384</v>
+        <v>209.00000000000003</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>291.25170455183405</v>
+        <v>200.64000000000001</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>273.04847301734441</v>
+        <v>188.10000000000002</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.08234493975931</v>
+        <v>190.19</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.15008878458923</v>
+        <v>194.37</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.18396070700413</v>
+        <v>196.46</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.15008878458923</v>
+        <v>194.37</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.08234493975931</v>
+        <v>190.19</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>276.08234493975931</v>
+        <v>190.19</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>279.11621686217427</v>
+        <v>192.28</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>282.15008878458923</v>
+        <v>194.37</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>266.98072917251454</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.01938223805141</v>
+        <v>167.41329952822622</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4620,99 +4623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>285.0406050943526</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>277.83879710536797</v>
+        <v>191.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.64524771335226</v>
+        <v>189.20000000000002</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>295.01308032921662</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.030974345125</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>312.96784041754097</v>
+        <v>215.60000000000002</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>316.16138980955668</v>
+        <v>217.8</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>306.58074163350955</v>
+        <v>211.20000000000002</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>300.19364284947807</v>
+        <v>206.8</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>290.61299467343088</v>
+        <v>200.20000000000002</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>293.80654406544659</v>
+        <v>202.4</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>297.00009345746236</v>
+        <v>204.60000000000002</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.03234649738374</v>
+        <v>193.60000000000002</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.80987604005415</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4721,99 +4724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>299.29263534907022</v>
+        <v>206.17930613947823</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>291.73073696063642</v>
+        <v>200.97000000000003</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>288.3775100990199</v>
+        <v>198.66000000000003</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>309.76373434567751</v>
+        <v>213.39272762283775</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>321.33252306238126</v>
+        <v>221.36233511986907</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>335.32268616165106</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>328.61623243841802</v>
+        <v>226.38000000000002</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>331.96945930003454</v>
+        <v>228.69000000000003</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>335.32268616165106</v>
+        <v>231.00000000000003</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>321.90977871518498</v>
+        <v>221.76000000000002</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>301.79041754548598</v>
+        <v>207.90000000000003</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.1436444071025</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>311.85009813033548</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>315.203324991952</v>
+        <v>217.14000000000001</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>311.85009813033548</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.1436444071025</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.1436444071025</v>
+        <v>210.21000000000004</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>308.49687126871896</v>
+        <v>212.52</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>311.85009813033548</v>
+        <v>214.83000000000004</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>295.08396382225294</v>
+        <v>203.28000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>268.60036984205692</v>
+        <v>185.03575211014481</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4822,99 +4825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>313.54466560378791</v>
+        <v>215.99736833659625</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>305.62267681590481</v>
+        <v>210.54000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>302.10977248468754</v>
+        <v>208.12000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>324.51438836213833</v>
+        <v>223.55428608106811</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>336.63407177963751</v>
+        <v>231.90339869700568</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>351.29043312172973</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>344.26462445929513</v>
+        <v>237.16000000000005</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>347.77752879051241</v>
+        <v>239.58000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>351.29043312172973</v>
+        <v>242.00000000000006</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>337.23881579686054</v>
+        <v>232.32000000000005</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>316.16138980955674</v>
+        <v>217.80000000000004</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.67429414077401</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>326.70010280320861</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>330.21300713442588</v>
+        <v>227.48000000000002</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>326.70010280320861</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.67429414077401</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>319.67429414077401</v>
+        <v>220.22000000000003</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>323.18719847199128</v>
+        <v>222.64000000000001</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>326.70010280320861</v>
+        <v>225.06000000000003</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>309.13558114712214</v>
+        <v>212.96000000000004</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.39086364405961</v>
+        <v>193.84697840110408</v>
       </c>
     </row>
   </sheetData>
@@ -5018,99 +5021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.215040531743</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.32265217711924</v>
+        <v>156.6</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.37433845117721</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.38897900964773</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.06459670526078</v>
+        <v>176.4</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.67750075327365</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.83878860923505</v>
+        <v>172.8</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.16136432115786</v>
+        <v>162</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.61298051320935</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>240.38717241718356</v>
+        <v>165.6</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.93555622513213</v>
+        <v>158.4</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.29898948731702</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5119,99 +5122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.55428850515582</v>
+        <v>152.62623960974358</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.95651956826327</v>
+        <v>148.76999999999998</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.47426072265108</v>
+        <v>147.06</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.30562152861836</v>
+        <v>157.96604512339934</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.86953005916533</v>
+        <v>163.86562469912383</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.22588456122219</v>
+        <v>171</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.26136686999772</v>
+        <v>167.57999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.74362571560999</v>
+        <v>169.29000000000002</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>248.22588456122219</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.2968491787733</v>
+        <v>164.16</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.40329610509997</v>
+        <v>153.9</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.88555495071219</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.85007264193663</v>
+        <v>159.03</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.33233148754886</v>
+        <v>160.74</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.85007264193663</v>
+        <v>159.03</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.88555495071219</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.88555495071219</v>
+        <v>155.61000000000001</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.36781379632438</v>
+        <v>157.32</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.85007264193663</v>
+        <v>159.03</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>218.4387784138755</v>
+        <v>150.47999999999999</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.83404001295114</v>
+        <v>136.97451779582144</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5220,99 +5223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>233.215040531743</v>
+        <v>160.65919958920378</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.32265217711924</v>
+        <v>156.6</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>224.7097481291064</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.37433845117721</v>
+        <v>166.2800474983151</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.38897900964773</v>
+        <v>172.49013126223562</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.06459670526078</v>
+        <v>176.4</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.67750075327365</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.29040480128651</v>
+        <v>180</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.83878860923505</v>
+        <v>172.8</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.16136432115786</v>
+        <v>162</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>245.61298051320935</v>
+        <v>169.20000000000002</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>240.38717241718356</v>
+        <v>165.6</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>243.00007646519646</v>
+        <v>167.4</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>229.93555622513213</v>
+        <v>158.4</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.29898948731702</v>
+        <v>144.18370294296994</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5321,99 +5324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>244.87579255833015</v>
+        <v>168.69215956866398</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>238.68878478597523</v>
+        <v>164.43</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>235.94523553556175</v>
+        <v>162.54000000000002</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>253.44305537373609</v>
+        <v>174.59404987323086</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>262.9084279601301</v>
+        <v>181.11463782534742</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.35492504135084</v>
+        <v>189</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>268.86782654052388</v>
+        <v>185.22000000000003</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>271.61137579093736</v>
+        <v>187.11</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>274.35492504135084</v>
+        <v>189</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>263.38072803969686</v>
+        <v>181.44000000000003</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>246.91943253721573</v>
+        <v>170.1</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.77426836917073</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.15008028845628</v>
+        <v>175.77</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>257.89362953886979</v>
+        <v>177.66000000000003</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.15008028845628</v>
+        <v>175.77</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.66298178762926</v>
+        <v>171.99</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>249.66298178762926</v>
+        <v>171.99</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>252.40653103804274</v>
+        <v>173.88</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>255.15008028845628</v>
+        <v>175.77</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>241.43233403638877</v>
+        <v>166.32000000000002</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>219.76393896168287</v>
+        <v>151.39288809011845</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5422,99 +5425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>256.53654458491735</v>
+        <v>176.72511954812418</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>250.05491739483122</v>
+        <v>172.26000000000002</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>247.18072294201707</v>
+        <v>170.28000000000003</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>265.51177229629496</v>
+        <v>182.90805224814662</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.42787691061255</v>
+        <v>189.73914438845921</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>281.67105637578686</v>
+        <v>194.04000000000002</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>284.54525082860107</v>
+        <v>196.02000000000004</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>287.41944528141522</v>
+        <v>198.00000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>275.92266747015861</v>
+        <v>190.08000000000004</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>258.67750075327365</v>
+        <v>178.20000000000002</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55169520608786</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.3000841117161</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>270.17427856453031</v>
+        <v>186.12000000000003</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.3000841117161</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55169520608786</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>261.55169520608786</v>
+        <v>180.18000000000004</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>264.42588965890195</v>
+        <v>182.16</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>267.3000841117161</v>
+        <v>184.14000000000001</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>252.92911184764534</v>
+        <v>174.24</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>230.22888843604872</v>
+        <v>158.60207323726695</v>
       </c>
     </row>
   </sheetData>
@@ -5618,99 +5621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.12782281304777</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.91263545164739</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>241.788033583783</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.79994012760432</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.1293046129972</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>247.16420681606979</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.19370939019689</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>278.20997667738635</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>290.32267200142945</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>275.26565996784979</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>269.01364568905524</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.32238214389054</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.5579076783095</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.02740854684518</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.22677153542813</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.53898290488735</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.34915883143199</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.36150828962539</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.80268227031715</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.30456465639861</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.53150550478722</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.18675956094904</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.47146147095566</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.55443276368555</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5719,99 +5722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.17143167239536</v>
+        <v>169.58471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.56700367906501</v>
+        <v>161.59055168651113</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>229.69863190459387</v>
+        <v>158.2367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>223.05994312122408</v>
+        <v>153.66346801887096</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.27283938234734</v>
+        <v>155.18790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.80599647526631</v>
+        <v>161.75519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>254.78402392068708</v>
+        <v>175.51782791488816</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>264.29947784351702</v>
+        <v>182.07291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>275.80653840135795</v>
+        <v>190</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>261.50237696945726</v>
+        <v>180.14602522545653</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>255.56296340460247</v>
+        <v>176.05443050162074</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.10626303669599</v>
+        <v>159.89537533296965</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>225.680012294394</v>
+        <v>155.46840399242595</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>192.87603811950291</v>
+        <v>132.87011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200.66543295865671</v>
+        <v>138.23614365030969</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>181.96203375964296</v>
+        <v>125.35158381206071</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.03170088986039</v>
+        <v>121.95513334831028</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.09343287514412</v>
+        <v>121.30877114156424</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.41254815680128</v>
+        <v>122.9063833884271</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>202.6393364235787</v>
+        <v>139.59594338714336</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.60493022954785</v>
+        <v>169.19445425077831</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>245.27742158290161</v>
+        <v>168.96883725408392</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.24788839740785</v>
+        <v>159.99293943964827</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.92671112550127</v>
+        <v>152.19390866202383</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5820,99 +5823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.12782281304777</v>
+        <v>178.51022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.91263545164739</v>
+        <v>170.09531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>241.788033583783</v>
+        <v>166.56503738887642</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.79994012760432</v>
+        <v>161.7510189672326</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.1293046129972</v>
+        <v>163.35569177444719</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>247.16420681606979</v>
+        <v>170.26862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.19370939019689</v>
+        <v>184.75560833146122</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>278.20997667738635</v>
+        <v>191.65570140248403</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>290.32267200142945</v>
+        <v>200</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>275.26565996784979</v>
+        <v>189.62739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>269.01364568905524</v>
+        <v>185.32045315960079</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.32238214389054</v>
+        <v>168.31092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>237.5579076783095</v>
+        <v>163.65095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.02740854684518</v>
+        <v>139.86328187682534</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>211.22677153542813</v>
+        <v>145.51173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.53898290488735</v>
+        <v>131.94903559164285</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.34915883143199</v>
+        <v>128.37382457716873</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.36150828962539</v>
+        <v>127.69344330690973</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.80268227031715</v>
+        <v>129.37514040887064</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.30456465639861</v>
+        <v>146.94309830225617</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.53150550478722</v>
+        <v>178.09942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.18675956094904</v>
+        <v>177.86193395166728</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.47146147095566</v>
+        <v>168.41362046278766</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.55443276368555</v>
+        <v>160.20411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5921,99 +5924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>272.08421395370016</v>
+        <v>187.43573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.25826722422977</v>
+        <v>178.600083442986</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>253.87743526297214</v>
+        <v>174.89328925832024</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>246.53993713398455</v>
+        <v>169.83856991559423</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>248.98576984364706</v>
+        <v>171.52347636316955</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>259.5224171568733</v>
+        <v>178.78205333932411</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>281.60339485970673</v>
+        <v>193.99338874803428</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>292.12047551125568</v>
+        <v>201.23848647260823</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>304.83880560150089</v>
+        <v>210</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>289.02894296624231</v>
+        <v>199.10876472287305</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>282.46432797350803</v>
+        <v>194.58647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.53850125108505</v>
+        <v>176.72646747328224</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>249.43580306222498</v>
+        <v>171.83349914952342</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>213.17877897418745</v>
+        <v>146.85644597066661</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>221.78811011219955</v>
+        <v>152.78731666613177</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.1159320501317</v>
+        <v>138.546487371225</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.66661677300362</v>
+        <v>134.79251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.62958370410666</v>
+        <v>134.07811547225521</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>197.19281638383302</v>
+        <v>135.84389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>223.96979288921855</v>
+        <v>154.29025321736898</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.45808078002653</v>
+        <v>187.0043968034918</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.0960975389965</v>
+        <v>186.75503064925064</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>256.69503454450347</v>
+        <v>176.83430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>244.18215440186984</v>
+        <v>168.2143201001316</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6022,99 +6025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>285.0406050943526</v>
+        <v>196.3612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.60389899681218</v>
+        <v>187.10484932122344</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>265.96683694216136</v>
+        <v>183.22154112776408</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>258.27993414036479</v>
+        <v>177.92612086395587</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>260.84223507429692</v>
+        <v>179.69126095189193</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>271.88062749767681</v>
+        <v>187.29548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>295.01308032921662</v>
+        <v>203.23116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>306.030974345125</v>
+        <v>210.82127154273243</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>319.35493920157245</v>
+        <v>220.00000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>302.79222596463478</v>
+        <v>208.59013447158128</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>295.91501025796077</v>
+        <v>203.85249847556088</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.75462035827962</v>
+        <v>185.14201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>261.31369844614045</v>
+        <v>180.01604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>223.3301494015297</v>
+        <v>153.84961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>232.34944868897097</v>
+        <v>160.06290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.69288119537609</v>
+        <v>145.14393915080714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>204.98407471457523</v>
+        <v>141.21120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.89765911858797</v>
+        <v>140.46278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>206.58295049734886</v>
+        <v>142.3126544497577</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>234.63502112203849</v>
+        <v>161.6374081324818</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>284.38465605526596</v>
+        <v>195.90936807984858</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>284.00543551704396</v>
+        <v>195.64812734683403</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>268.91860761805123</v>
+        <v>185.25498250906645</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>255.80987604005415</v>
+        <v>176.22452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -6218,99 +6221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.912782281304775</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.691263545164741</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.178803358378303</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.479994012760429</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.712930461299724</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.71642068160698</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.819370939019691</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.820997667738634</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.032267200142947</v>
+        <v>20</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.526565996784978</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.901364568905525</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.432238214389052</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.755790767830948</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.302740854684519</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.122677153542813</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.153898290488737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.634915883143201</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.536150828962541</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.780268227031716</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.330456465639863</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.85315055047872</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.818675956094907</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.447146147095566</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.255443276368556</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6319,99 +6322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.617143167239536</v>
+        <v>16.958471067749286</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.456700367906503</v>
+        <v>16.159055168651115</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.969863190459385</v>
+        <v>15.82367855194326</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.305994312122408</v>
+        <v>15.366346801887095</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.527283938234735</v>
+        <v>15.518790718572484</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.480599647526631</v>
+        <v>16.175519111653134</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.478402392068705</v>
+        <v>17.551782791488815</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.429947784351704</v>
+        <v>18.207291633235982</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.580653840135799</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.15023769694573</v>
+        <v>18.014602522545655</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.55629634046025</v>
+        <v>17.605443050162076</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.210626303669599</v>
+        <v>15.989537533296964</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.5680012294394</v>
+        <v>15.546840399242594</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.287603811950291</v>
+        <v>13.287011778298407</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.066543295865671</v>
+        <v>13.823614365030968</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.196203375964298</v>
+        <v>12.535158381206072</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.703170088986042</v>
+        <v>12.195513334831031</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.609343287514413</v>
+        <v>12.130877114156425</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.841254815680131</v>
+        <v>12.290638338842712</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.26393364235787</v>
+        <v>13.959594338714338</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.560493022954784</v>
+        <v>16.919445425077829</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.527742158290163</v>
+        <v>16.896883725408394</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.224788839740786</v>
+        <v>15.999293943964828</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.092671112550125</v>
+        <v>15.219390866202382</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6420,99 +6423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.912782281304775</v>
+        <v>17.851022176578198</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.691263545164741</v>
+        <v>17.009531756474857</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.178803358378303</v>
+        <v>16.656503738887643</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.479994012760429</v>
+        <v>16.175101896723259</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.712930461299724</v>
+        <v>16.335569177444722</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.71642068160698</v>
+        <v>17.026862222792772</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.819370939019691</v>
+        <v>18.475560833146123</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.820997667738634</v>
+        <v>19.165570140248402</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.032267200142947</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.526565996784978</v>
+        <v>18.962739497416479</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.901364568905525</v>
+        <v>18.53204531596008</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.432238214389052</v>
+        <v>16.831092140312595</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.755790767830948</v>
+        <v>16.365095157097468</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.302740854684519</v>
+        <v>13.986328187682535</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.122677153542813</v>
+        <v>14.551173015822073</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.153898290488737</v>
+        <v>13.194903559164286</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.634915883143201</v>
+        <v>12.837382457716874</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.536150828962541</v>
+        <v>12.769344330690974</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.780268227031716</v>
+        <v>12.937514040887065</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.330456465639863</v>
+        <v>14.694309830225619</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.85315055047872</v>
+        <v>17.809942552713505</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.818675956094907</v>
+        <v>17.78619339516673</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.447146147095566</v>
+        <v>16.841362046278768</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.255443276368556</v>
+        <v>16.020411438107772</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6521,99 +6524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.208421395370017</v>
+        <v>18.743573285407109</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.925826722422975</v>
+        <v>17.860008344298599</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.387743526297218</v>
+        <v>17.489328925832027</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.653993713398457</v>
+        <v>16.983856991559424</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.898576984364709</v>
+        <v>17.152347636316957</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.952241715687329</v>
+        <v>17.87820533393241</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.160339485970677</v>
+        <v>19.39933887480343</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.212047551125565</v>
+        <v>20.123848647260822</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.483880560150091</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.902894296624225</v>
+        <v>19.910876472287303</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.246432797350799</v>
+        <v>19.458647581758083</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.653850125108509</v>
+        <v>17.672646747328226</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.943580306222497</v>
+        <v>17.183349914952341</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.317877897418747</v>
+        <v>14.685644597066663</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.178811011219956</v>
+        <v>15.278731666613178</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.111593205013172</v>
+        <v>13.854648737122501</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.56666167730036</v>
+        <v>13.479251580602718</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.462958370410668</v>
+        <v>13.407811547225522</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.719281638383301</v>
+        <v>13.584389742931418</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.396979288921855</v>
+        <v>15.4290253217369</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.145808078002656</v>
+        <v>18.700439680349181</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.109609753899655</v>
+        <v>18.675503064925067</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.669503454450343</v>
+        <v>17.683430148592706</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>24.418215440186987</v>
+        <v>16.821432010013162</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6622,99 +6625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.504060509435259</v>
+        <v>19.63612439423602</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.160389899681217</v>
+        <v>18.710484932122345</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.596683694216136</v>
+        <v>18.32215411277641</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.827993414036474</v>
+        <v>17.792612086395586</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.084223507429698</v>
+        <v>17.969126095189196</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>27.188062749767681</v>
+        <v>18.729548445072052</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.501308032921663</v>
+        <v>20.323116916460737</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.603097434512502</v>
+        <v>21.082127154273245</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.935493920157239</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.279222596463477</v>
+        <v>20.859013447158127</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>29.591501025796081</v>
+        <v>20.385249847556089</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.875462035827962</v>
+        <v>18.514201354343857</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.131369844614042</v>
+        <v>18.001604672807215</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22.333014940152971</v>
+        <v>15.384961006450789</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.234944868897099</v>
+        <v>16.006290317404282</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.069288119537614</v>
+        <v>14.514393915080717</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.498407471457522</v>
+        <v>14.121120703488563</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.389765911858795</v>
+        <v>14.046278763760071</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.658295049734889</v>
+        <v>14.231265444975772</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>23.463502112203852</v>
+        <v>16.163740813248182</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.438465605526595</v>
+        <v>19.590936807984857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>28.400543551704398</v>
+        <v>19.564812734683404</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>26.891860761805127</v>
+        <v>18.525498250906647</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>25.580987604005415</v>
+        <v>17.622452581918552</v>
       </c>
     </row>
   </sheetData>
@@ -6818,99 +6821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.258080960257303</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.064534400285893</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.677435616254442</v>
+        <v>35.6</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.935499584245861</v>
+        <v>34.4</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.451627520228712</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.032272864231579</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.354854240243007</v>
+        <v>34</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.096790272251589</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6919,99 +6922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.234286334479073</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.234286334479073</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.64517691224443</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.196789989047147</v>
+        <v>34.58</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.234286334479073</v>
+        <v>33.916942135498573</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>55.161307680271598</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.196789989047147</v>
+        <v>34.58</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.093563835441721</v>
+        <v>33.82</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.43872460503357</v>
+        <v>32.68</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.232272297822703</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.129046144217277</v>
+        <v>30.4</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44.680659221020001</v>
+        <v>30.780000000000005</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.232272297822703</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.335498451428137</v>
+        <v>31.919999999999998</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.78388537462542</v>
+        <v>31.539999999999996</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>45.232272297822703</v>
+        <v>31.159999999999997</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.887111528230854</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.541950758639004</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7020,99 +7023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.258080960257303</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.82556456260955</v>
+        <v>35.702044353156396</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.064534400285893</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.838726304260156</v>
+        <v>36.4</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.677435616254442</v>
+        <v>35.6</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.935499584245861</v>
+        <v>34.4</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>46.451627520228712</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.032272864231579</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.193563552237279</v>
+        <v>33.199999999999996</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>47.612918208234426</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.354854240243007</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.096790272251589</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7121,99 +7124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.416842790740034</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.416842790740034</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.870985008270175</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>55.480662619473165</v>
+        <v>38.22</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.416842790740034</v>
+        <v>37.487146570814218</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>60.967761120300182</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>55.480662619473165</v>
+        <v>38.22</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.261307397067171</v>
+        <v>37.380000000000003</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.432274563458158</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.993564118646148</v>
+        <v>34.44</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>48.774208896240147</v>
+        <v>33.6</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.383886507443165</v>
+        <v>34.02000000000001</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.993564118646148</v>
+        <v>34.44</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.212919341052157</v>
+        <v>35.28</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>50.603241729849152</v>
+        <v>34.86</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>49.993564118646148</v>
+        <v>34.44</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.822596952255161</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7222,99 +7225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.008121018870519</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.008121018870519</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.483889056283033</v>
+        <v>39.6</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.122598934686174</v>
+        <v>40.04</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>57.008121018870519</v>
+        <v>39.272248788472041</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>63.870987840314477</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>58.122598934686174</v>
+        <v>40.04</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>56.845179177879892</v>
+        <v>39.160000000000004</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.929049542670455</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.37421002905787</v>
+        <v>36.08</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.096790272251589</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>51.735500150654737</v>
+        <v>35.640000000000008</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.37421002905787</v>
+        <v>36.08</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.651629785864174</v>
+        <v>36.960000000000008</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>53.012919907461011</v>
+        <v>36.519999999999996</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>52.37421002905787</v>
+        <v>36.08</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>54.290339664267314</v>
+        <v>37.400000000000006</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>56.206469299476751</v>
+        <v>38.720000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data/HR1/Market Data/cs1_market_data_2050.xlsx
+++ b/data/HR1/Market Data/cs1_market_data_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73771F15-8BA5-4CB9-996F-9807661F8196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4DA4AC-92DC-476C-89E6-5E51A4FC59D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
@@ -158,12 +158,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1205,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="4">
         <v>0.2</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="4">
         <v>0.95</v>
@@ -1421,99 +1421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>190.4713776036503</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>185.65894644688652</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>197.135239040073</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>204.49767587887499</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>209.1330661125848</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>211.26707699128463</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>204.86504435518509</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>192.06097908298605</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>194.19498996168588</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>200.59702259778541</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>194.19498996168588</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>194.19498996168588</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>196.3290008403857</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>187.79295732558637</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>170.93866145084709</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1522,99 +1522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.54318174524218</v>
+        <v>201.05312080385306</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.82999999999998</v>
+        <v>195.9733323606024</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.06961070637698</v>
+        <v>208.08719676452145</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.28020796559579</v>
+        <v>215.85865787214581</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>225.25670386276141</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.82000000000002</v>
+        <v>220.75156978550618</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.91</v>
+        <v>223.00413682413375</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>225.25670386276141</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.64000000000001</v>
+        <v>216.24643570825094</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.10000000000002</v>
+        <v>202.73103347648527</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>204.98360051511287</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>209.4887345923681</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.46</v>
+        <v>211.74130163099571</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>209.4887345923681</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>204.98360051511287</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>204.98360051511287</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.28</v>
+        <v>207.23616755374047</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>209.4887345923681</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.92000000000002</v>
+        <v>198.22589939923003</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.41329952822622</v>
+        <v>180.43525375367187</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1623,99 +1623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>211.63486400405588</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>206.28771827431834</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>219.03915448896998</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>227.21963986541667</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>237.11231985553832</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>232.37007345842756</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>234.74119665698294</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>237.11231985553832</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>227.62782706131679</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>215.77221106853986</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>220.51445746565065</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>222.885580664206</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>220.51445746565065</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>215.77221106853986</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>215.77221106853986</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>218.14333426709524</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>220.51445746565065</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>208.65884147287372</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>189.93184605649674</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1724,99 +1724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.17930613947823</v>
+        <v>222.21660720425871</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.97000000000003</v>
+        <v>216.60210418803428</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.39272762283775</v>
+        <v>229.99111221341849</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.36233511986907</v>
+        <v>238.58062185868752</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>248.96793584831525</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.38000000000002</v>
+        <v>243.98857713134893</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.69000000000003</v>
+        <v>246.47825648983209</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>248.96793584831525</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.76000000000002</v>
+        <v>239.00921841438262</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.90000000000003</v>
+        <v>224.07114226348372</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>226.56082162196688</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>231.5401803389332</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.14000000000001</v>
+        <v>234.02985969741633</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>231.5401803389332</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>226.56082162196688</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>226.56082162196688</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.52</v>
+        <v>229.05050098045001</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>231.5401803389332</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.28000000000003</v>
+        <v>219.09178354651743</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.03575211014481</v>
+        <v>199.4284383593216</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1825,99 +1825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.99736833659625</v>
+        <v>232.7983504044615</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.54000000000002</v>
+        <v>226.91649010175018</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.55428608106811</v>
+        <v>240.94306993786699</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.90339869700568</v>
+        <v>249.94160385195835</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>260.82355184109218</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.16000000000005</v>
+        <v>255.60708080427034</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.58000000000004</v>
+        <v>258.21531632268125</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>260.82355184109218</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.32000000000005</v>
+        <v>250.3906097674485</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.80000000000004</v>
+        <v>234.74119665698296</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>237.34943217539387</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>242.56590321221572</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.48000000000002</v>
+        <v>245.17413873062662</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>242.56590321221572</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>237.34943217539387</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>237.34943217539387</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.64000000000001</v>
+        <v>239.95766769380478</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>242.56590321221572</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.96000000000004</v>
+        <v>229.52472562016112</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.84697840110408</v>
+        <v>208.92503066214644</v>
       </c>
     </row>
   </sheetData>
@@ -2021,99 +2021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>155.84021803935022</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>151.9027743656344</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>161.29246830551423</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>167.3162802645341</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>174.60089007544184</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>171.10887227393303</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>172.85488117468745</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>174.60089007544184</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>167.61685447242417</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>157.14080106789766</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>158.8868099686521</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>162.37882777016091</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>164.12483667091536</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>162.37882777016091</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>158.8868099686521</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>158.8868099686521</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>160.63281886940649</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>162.37882777016091</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>153.64878326638882</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>139.85890482342032</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2122,99 +2122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>152.62623960974358</v>
+        <v>164.49800793042522</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>148.76999999999998</v>
+        <v>160.34181738594739</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.96604512339934</v>
+        <v>170.25316098915391</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.86562469912383</v>
+        <v>176.61162916811929</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>184.30093952407751</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.57999999999998</v>
+        <v>180.61492073359594</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.29000000000002</v>
+        <v>182.45793012883675</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>184.30093952407751</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.16</v>
+        <v>176.9289019431144</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>153.9</v>
+        <v>165.87084557166975</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>167.71385496691053</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>171.39987375739207</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.74</v>
+        <v>173.24288315263286</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>171.39987375739207</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>167.71385496691053</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>167.71385496691053</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.32</v>
+        <v>169.55686436215129</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>171.39987375739207</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>150.47999999999999</v>
+        <v>162.18482678118818</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>136.97451779582144</v>
+        <v>147.628843980277</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2223,99 +2223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>173.15579782150024</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>168.78086040626044</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>179.21385367279359</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>185.90697807170454</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>194.00098897271315</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>190.1209691932589</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>192.06097908298605</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>194.00098897271315</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>186.24094941380463</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>174.60089007544184</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>180.42091974462323</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>182.36092963435038</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>180.42091974462323</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>178.48090985489608</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>180.42091974462323</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>170.7208702959876</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>155.39878313713368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2324,99 +2324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.69215956866398</v>
+        <v>181.81358771257527</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.43</v>
+        <v>177.21990342657347</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.59404987323086</v>
+        <v>188.17454635643327</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.11463782534742</v>
+        <v>195.20232697528979</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>203.70103842134881</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.22000000000003</v>
+        <v>199.62701765292186</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.11</v>
+        <v>201.66402803713532</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>203.70103842134881</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.44000000000003</v>
+        <v>195.55299688449489</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.1</v>
+        <v>183.33093457921393</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>189.4419657318544</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.66000000000003</v>
+        <v>191.47897611606791</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>189.4419657318544</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>185.36794496342742</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>185.36794496342742</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>173.88</v>
+        <v>187.40495534764091</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>189.4419657318544</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.32000000000002</v>
+        <v>179.25691381078698</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>151.39288809011845</v>
+        <v>163.16872229399036</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2425,99 +2425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.72511954812418</v>
+        <v>190.4713776036503</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.26000000000002</v>
+        <v>185.65894644688652</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.90805224814662</v>
+        <v>197.13523904007297</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.73914438845921</v>
+        <v>204.49767587887501</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.04000000000002</v>
+        <v>209.1330661125848</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.02000000000004</v>
+        <v>211.26707699128465</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.08000000000004</v>
+        <v>204.86504435518512</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>192.06097908298605</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>194.19498996168591</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.12000000000003</v>
+        <v>200.59702259778544</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>194.19498996168591</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>194.19498996168591</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.16</v>
+        <v>196.3290008403857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.24</v>
+        <v>187.79295732558634</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.60207323726695</v>
+        <v>170.93866145084706</v>
       </c>
     </row>
   </sheetData>
@@ -2621,99 +2621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>173.15579782150024</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>164.99329913594465</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>161.56890990859486</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>156.89928823493605</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>158.4558287928223</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>165.16140551619634</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>179.21385367279359</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>185.90697807170454</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>194.00098897271315</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>183.93951080653633</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>179.76175594916961</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>163.26242603557515</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>158.74223225547337</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>135.66807502536733</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>141.14709778912697</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>127.9912169938722</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>124.52324463090163</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>123.86327143435784</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>125.49452593902264</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>142.53553196676151</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>172.7573234386814</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>172.52695543611421</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>163.36204463127984</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>155.39878313713368</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2722,99 +2722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.58471067749286</v>
+        <v>182.77556436713914</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.59055168651113</v>
+        <v>174.159593532386</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.2367855194326</v>
+        <v>170.54496045907234</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.66346801887096</v>
+        <v>165.61591535909915</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.18790718572484</v>
+        <v>167.25893039242354</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.75519111653134</v>
+        <v>174.33703915598502</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.51782791488816</v>
+        <v>189.17017887683767</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.07291633235982</v>
+        <v>196.23514352013257</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190</v>
+        <v>204.77882169341945</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.14602522545653</v>
+        <v>194.15837251801054</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.05443050162074</v>
+        <v>189.74852016856789</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.89537533296965</v>
+        <v>172.33256081532932</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.46840399242595</v>
+        <v>167.56124515855521</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>132.87011778298407</v>
+        <v>143.20519030455438</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.23614365030969</v>
+        <v>148.98860322185624</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>125.35158381206071</v>
+        <v>135.10184016019844</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.95513334831028</v>
+        <v>131.44120266595169</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.30877114156424</v>
+        <v>130.74456429182214</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>122.9063833884271</v>
+        <v>132.46644404674612</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.59594338714336</v>
+        <v>150.4541726315816</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.19445425077831</v>
+        <v>182.35495251860812</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.96883725408392</v>
+        <v>182.11178629367609</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.99293943964827</v>
+        <v>172.43771377746205</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.19390866202383</v>
+        <v>164.03204886697443</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2823,99 +2823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>192.39533091277804</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>183.32588792882737</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>179.52101100954982</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>174.33254248326227</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>176.06203199202477</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>183.51267279577371</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>199.12650408088177</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>206.56330896856059</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>215.55665441412572</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>204.3772342294848</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>199.7352843879662</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>181.40269559508349</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>176.38025806163708</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>150.74230558374146</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>156.8301086545855</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>142.21246332652467</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>138.3591607010018</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>137.62585714928647</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>139.43836215446959</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>158.37281329640169</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>191.95258159853486</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>191.696617151238</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>181.51338292364426</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>172.66531459681519</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2924,99 +2924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.43573285407109</v>
+        <v>202.01509745841696</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.600083442986</v>
+        <v>192.49218232526877</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.89328925832024</v>
+        <v>188.4970615600273</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.83856991559423</v>
+        <v>183.04916960742537</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.52347636316955</v>
+        <v>184.86513359162601</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.78205333932411</v>
+        <v>192.6883064355624</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>193.99338874803428</v>
+        <v>209.08282928492585</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.23848647260823</v>
+        <v>216.89147441698864</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210</v>
+        <v>226.33448713483202</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.10876472287305</v>
+        <v>214.59609594095906</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.58647581758083</v>
+        <v>209.72204860736451</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.72646747328224</v>
+        <v>190.47283037483766</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.83349914952342</v>
+        <v>185.19927096471892</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.85644597066661</v>
+        <v>158.27942086292856</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.78731666613177</v>
+        <v>164.67161408731479</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.546487371225</v>
+        <v>149.3230864928509</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.79251580602718</v>
+        <v>145.2771187360519</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.07811547225521</v>
+        <v>144.50715000675081</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>135.84389742931418</v>
+        <v>146.41028026219308</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>154.29025321736898</v>
+        <v>166.29145396122178</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.0043968034918</v>
+        <v>201.55021067846161</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.75503064925064</v>
+        <v>201.28144800879988</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.83430148592706</v>
+        <v>190.58905206982649</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.2143201001316</v>
+        <v>181.29858032665595</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3025,99 +3025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>211.63486400405588</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.10484932122344</v>
+        <v>201.65847672171014</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.22154112776408</v>
+        <v>197.47311211050484</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.92612086395587</v>
+        <v>191.76579673158849</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.69126095189193</v>
+        <v>193.66823519122727</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.29548445072052</v>
+        <v>201.86394007535111</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>219.03915448896998</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>227.21963986541667</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>237.11231985553832</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>208.59013447158128</v>
+        <v>224.81495765243329</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.85249847556088</v>
+        <v>219.70881282676285</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.14201354343857</v>
+        <v>199.54296515459185</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.01604672807215</v>
+        <v>194.01828386780079</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.84961006450789</v>
+        <v>165.81653614211564</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.06290317404282</v>
+        <v>172.51311952004409</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.14393915080714</v>
+        <v>156.43370965917714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.21120703488563</v>
+        <v>152.19507677110201</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>140.46278763760071</v>
+        <v>151.38844286421514</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>142.3126544497577</v>
+        <v>153.38219836991655</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.6374081324818</v>
+        <v>174.21009462604187</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.90936807984858</v>
+        <v>211.14783975838836</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.64812734683403</v>
+        <v>210.86627886636182</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.25498250906645</v>
+        <v>199.6647212160087</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>189.93184605649674</v>
       </c>
     </row>
   </sheetData>
@@ -3221,99 +3221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>17.315579782150024</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>16.499329913594465</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>16.156890990859484</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>15.689928823493604</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>15.845582879282233</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>16.516140551619632</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>17.92138536727936</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>18.590697807170454</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>19.400098897271317</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>18.393951080653633</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>17.97617559491696</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>16.326242603557514</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>15.874223225547336</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>13.566807502536735</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>14.114709778912696</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>12.799121699387221</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>12.452324463090163</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>12.386327143435784</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>12.549452593902265</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>14.253553196676153</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>17.275732343868139</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>17.25269554361142</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>16.336204463127984</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>15.539878313713368</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3322,99 +3322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.958471067749286</v>
+        <v>18.277556436713912</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.159055168651115</v>
+        <v>17.415959353238602</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.82367855194326</v>
+        <v>17.054496045907232</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.366346801887095</v>
+        <v>16.561591535909912</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.518790718572484</v>
+        <v>16.725893039242354</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175519111653134</v>
+        <v>17.433703915598503</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.551782791488815</v>
+        <v>18.917017887683766</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.207291633235982</v>
+        <v>19.623514352013256</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19</v>
+        <v>20.477882169341942</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.014602522545655</v>
+        <v>19.415837251801054</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.605443050162076</v>
+        <v>18.97485201685679</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.989537533296964</v>
+        <v>17.233256081532929</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.546840399242594</v>
+        <v>16.756124515855522</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.287011778298407</v>
+        <v>14.320519030455438</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.823614365030968</v>
+        <v>14.898860322185623</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.535158381206072</v>
+        <v>13.510184016019844</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.195513334831031</v>
+        <v>13.144120266595172</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.130877114156425</v>
+        <v>13.074456429182217</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.290638338842712</v>
+        <v>13.246644404674614</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.959594338714338</v>
+        <v>15.045417263158162</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.919445425077829</v>
+        <v>18.235495251860812</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.896883725408394</v>
+        <v>18.211178629367613</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.999293943964828</v>
+        <v>17.243771377746206</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.219390866202382</v>
+        <v>16.403204886697441</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -3423,99 +3423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>19.239533091277806</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>18.332588792882738</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>17.952101100954984</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>17.433254248326225</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>17.606203199202479</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>18.351267279577371</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>19.912650408088176</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>20.656330896856058</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>21.555665441412572</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>20.43772342294848</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>19.97352843879662</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>18.140269559508351</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>17.638025806163707</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>15.074230558374147</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>15.68301086545855</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>14.221246332652468</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>13.835916070100181</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>13.762585714928649</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>13.943836215446961</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>15.83728132964017</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>19.195258159853484</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>19.169661715123802</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>18.151338292364429</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>17.26653145968152</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -3524,99 +3524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.743573285407109</v>
+        <v>20.201509745841697</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.860008344298599</v>
+        <v>19.249218232526875</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.489328925832027</v>
+        <v>18.849706156002735</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.983856991559424</v>
+        <v>18.304916960742538</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.152347636316957</v>
+        <v>18.486513359162604</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.87820533393241</v>
+        <v>19.268830643556239</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.39933887480343</v>
+        <v>20.908282928492589</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.123848647260822</v>
+        <v>21.689147441698861</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21</v>
+        <v>22.633448713483201</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.910876472287303</v>
+        <v>21.459609594095905</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.458647581758083</v>
+        <v>20.972204860736451</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.672646747328226</v>
+        <v>19.047283037483769</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.183349914952341</v>
+        <v>18.519927096471893</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.685644597066663</v>
+        <v>15.827942086292856</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.278731666613178</v>
+        <v>16.467161408731478</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.854648737122501</v>
+        <v>14.932308649285092</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.479251580602718</v>
+        <v>14.52771187360519</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.407811547225522</v>
+        <v>14.450715000675082</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.584389742931418</v>
+        <v>14.64102802621931</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.4290253217369</v>
+        <v>16.62914539612218</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.700439680349181</v>
+        <v>20.15502106784616</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.675503064925067</v>
+        <v>20.128144800879994</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.683430148592706</v>
+        <v>19.058905206982647</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.821432010013162</v>
+        <v>18.129858032665595</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3625,99 +3625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.63612439423602</v>
+        <v>21.163486400405588</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.710484932122345</v>
+        <v>20.165847672171015</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.32215411277641</v>
+        <v>19.747311211050484</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.792612086395586</v>
+        <v>19.176579673158848</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.969126095189196</v>
+        <v>19.366823519122729</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.729548445072052</v>
+        <v>20.18639400753511</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.323116916460737</v>
+        <v>21.903915448896999</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.082127154273245</v>
+        <v>22.721963986541667</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22</v>
+        <v>23.71123198555383</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.859013447158127</v>
+        <v>22.481495765243327</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.385249847556089</v>
+        <v>21.970881282676284</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.514201354343857</v>
+        <v>19.954296515459188</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.001604672807215</v>
+        <v>19.401828386780078</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.384961006450789</v>
+        <v>16.581653614211564</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.006290317404282</v>
+        <v>17.251311952004407</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.514393915080717</v>
+        <v>15.643370965917716</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.121120703488563</v>
+        <v>15.219507677110201</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.046278763760071</v>
+        <v>15.138844286421515</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.231265444975772</v>
+        <v>15.338219836991659</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.163740813248182</v>
+        <v>17.421009462604189</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.590936807984857</v>
+        <v>21.114783975838836</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.564812734683404</v>
+        <v>21.086627886636183</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.525498250906647</v>
+        <v>19.966472121600873</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.622452581918552</v>
+        <v>18.993184605649674</v>
       </c>
     </row>
   </sheetData>
@@ -3821,99 +3821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>34.631159564300049</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>34.631159564300049</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>34.920178015088368</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>35.308179993033789</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>34.631159564300049</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>38.800197794542633</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>35.308179993033789</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>34.532176037142939</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>33.36817010330666</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.816162191524956</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>31.040158235634106</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>31.428160213579538</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.816162191524956</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.816162191524956</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>32.980168125361239</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>34.144174059197518</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3922,99 +3922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>36.555112873427824</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>36.555112873427824</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.199999999999996</v>
+        <v>36.860187904815497</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>37.269745548202337</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>36.555112873427824</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38</v>
+        <v>40.955764338683885</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>37.269745548202337</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.82</v>
+        <v>36.450630261428664</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.68</v>
+        <v>35.221957331268143</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>33.583726757720783</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.4</v>
+        <v>32.764611470947109</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.780000000000005</v>
+        <v>33.174169114333957</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>33.583726757720783</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>33.583726757720783</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.299999999999997</v>
+        <v>34.812399687881303</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.44</v>
+        <v>36.041072618041817</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4023,99 +4023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>38.479066182555613</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>38.479066182555613</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>38.800197794542633</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>39.231311103370878</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>38.479066182555613</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>43.111330882825143</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>39.231311103370878</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>38.369084485714382</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>37.075744559229626</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>35.351291323916612</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>34.489064706260116</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>34.920178015088375</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>35.351291323916612</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>35.351291323916612</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>36.644631250401375</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.93797117688613</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4124,99 +4124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>40.403019491683395</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>40.403019491683395</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.800000000000004</v>
+        <v>40.74020768426977</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>41.192876658539426</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>40.403019491683395</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42</v>
+        <v>45.266897426966402</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>41.192876658539426</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.380000000000003</v>
+        <v>40.287538710000099</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.119999999999997</v>
+        <v>38.929531787191102</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>37.118855890112449</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.02000000000001</v>
+        <v>36.6661869158428</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>37.118855890112449</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>37.118855890112449</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.700000000000003</v>
+        <v>38.476862812921446</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4225,99 +4225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>42.326972800811177</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>42.326972800811177</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.6</v>
+        <v>42.680217573996899</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>43.154442213707966</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>42.326972800811177</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44</v>
+        <v>47.422463971107661</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>43.154442213707966</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.160000000000004</v>
+        <v>42.205992934285824</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.840000000000003</v>
+        <v>40.783319015152593</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>38.886420456308279</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.93797117688613</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.640000000000008</v>
+        <v>38.412195816597212</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>38.886420456308279</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>38.886420456308279</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.400000000000006</v>
+        <v>40.309094375441518</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.720000000000006</v>
+        <v>41.731768294574749</v>
       </c>
     </row>
   </sheetData>
@@ -4421,99 +4421,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>190.4713776036503</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>185.65894644688652</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>197.135239040073</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>204.49767587887499</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>209.1330661125848</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>211.26707699128463</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>204.86504435518509</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>192.06097908298605</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>194.19498996168588</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>200.59702259778541</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>194.19498996168588</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>194.19498996168588</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>196.3290008403857</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>187.79295732558637</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>170.93866145084709</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4522,99 +4522,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.54318174524218</v>
+        <v>201.05312080385306</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.82999999999998</v>
+        <v>195.9733323606024</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>179.74</v>
+        <v>193.7207653219748</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.06961070637698</v>
+        <v>208.08719676452145</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.28020796559579</v>
+        <v>215.85865787214581</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>225.25670386276141</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.82000000000002</v>
+        <v>220.75156978550618</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.91</v>
+        <v>223.00413682413375</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>209.00000000000003</v>
+        <v>225.25670386276141</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.64000000000001</v>
+        <v>216.24643570825094</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>188.10000000000002</v>
+        <v>202.73103347648527</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>204.98360051511287</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>209.4887345923681</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.46</v>
+        <v>211.74130163099571</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>209.4887345923681</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>204.98360051511287</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.19</v>
+        <v>204.98360051511287</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>192.28</v>
+        <v>207.23616755374047</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.37</v>
+        <v>209.4887345923681</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>183.92000000000002</v>
+        <v>198.22589939923003</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.41329952822622</v>
+        <v>180.43525375367187</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4623,99 +4623,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>211.63486400405588</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>191.4</v>
+        <v>206.28771827431834</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.20000000000002</v>
+        <v>203.91659507576296</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>219.03915448896998</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>227.21963986541667</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>237.11231985553832</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.60000000000002</v>
+        <v>232.37007345842756</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.8</v>
+        <v>234.74119665698294</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>237.11231985553832</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>211.20000000000002</v>
+        <v>227.62782706131679</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>215.77221106853986</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>220.51445746565065</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.8</v>
+        <v>222.885580664206</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>220.51445746565065</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>215.77221106853986</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.20000000000002</v>
+        <v>215.77221106853986</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>202.4</v>
+        <v>218.14333426709524</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>204.60000000000002</v>
+        <v>220.51445746565065</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.60000000000002</v>
+        <v>208.65884147287372</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>189.93184605649674</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4724,99 +4724,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>206.17930613947823</v>
+        <v>222.21660720425871</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>200.97000000000003</v>
+        <v>216.60210418803428</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.66000000000003</v>
+        <v>214.11242482955112</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>213.39272762283775</v>
+        <v>229.99111221341849</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.36233511986907</v>
+        <v>238.58062185868752</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>248.96793584831525</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>226.38000000000002</v>
+        <v>243.98857713134893</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>228.69000000000003</v>
+        <v>246.47825648983209</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.00000000000003</v>
+        <v>248.96793584831525</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>221.76000000000002</v>
+        <v>239.00921841438262</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>207.90000000000003</v>
+        <v>224.07114226348372</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>226.56082162196688</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>231.5401803389332</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.14000000000001</v>
+        <v>234.02985969741633</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>231.5401803389332</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>226.56082162196688</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.21000000000004</v>
+        <v>226.56082162196688</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.52</v>
+        <v>229.05050098045001</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>214.83000000000004</v>
+        <v>231.5401803389332</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>203.28000000000003</v>
+        <v>219.09178354651743</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.03575211014481</v>
+        <v>199.4284383593216</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4825,99 +4825,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>215.99736833659625</v>
+        <v>232.7983504044615</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>210.54000000000002</v>
+        <v>226.91649010175018</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>208.12000000000003</v>
+        <v>224.30825458333928</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>223.55428608106811</v>
+        <v>240.94306993786699</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>231.90339869700568</v>
+        <v>249.94160385195835</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>260.82355184109218</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>237.16000000000005</v>
+        <v>255.60708080427034</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>239.58000000000004</v>
+        <v>258.21531632268125</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>242.00000000000006</v>
+        <v>260.82355184109218</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>232.32000000000005</v>
+        <v>250.3906097674485</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>217.80000000000004</v>
+        <v>234.74119665698296</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>237.34943217539387</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>242.56590321221572</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>227.48000000000002</v>
+        <v>245.17413873062662</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>242.56590321221572</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>237.34943217539387</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>220.22000000000003</v>
+        <v>237.34943217539387</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>222.64000000000001</v>
+        <v>239.95766769380478</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>225.06000000000003</v>
+        <v>242.56590321221572</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>212.96000000000004</v>
+        <v>229.52472562016112</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$5*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>193.84697840110408</v>
+        <v>208.92503066214644</v>
       </c>
     </row>
   </sheetData>
@@ -5021,99 +5021,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>155.84021803935022</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>151.9027743656344</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>150.15676546488001</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>161.29246830551423</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>167.3162802645341</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>174.60089007544184</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>171.10887227393303</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>172.85488117468745</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>174.60089007544184</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>167.61685447242417</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>157.14080106789766</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>158.8868099686521</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>162.37882777016091</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>164.12483667091536</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>162.37882777016091</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>158.8868099686521</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>158.8868099686521</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>160.63281886940649</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>162.37882777016091</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>153.64878326638882</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>139.85890482342032</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5122,99 +5122,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>152.62623960974358</v>
+        <v>164.49800793042522</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>148.76999999999998</v>
+        <v>160.34181738594739</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>147.06</v>
+        <v>158.49880799070664</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.96604512339934</v>
+        <v>170.25316098915391</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.86562469912383</v>
+        <v>176.61162916811929</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>184.30093952407751</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.57999999999998</v>
+        <v>180.61492073359594</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.29000000000002</v>
+        <v>182.45793012883675</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171</v>
+        <v>184.30093952407751</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.16</v>
+        <v>176.9289019431144</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>153.9</v>
+        <v>165.87084557166975</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>167.71385496691053</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>171.39987375739207</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.74</v>
+        <v>173.24288315263286</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>171.39987375739207</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>167.71385496691053</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>155.61000000000001</v>
+        <v>167.71385496691053</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>157.32</v>
+        <v>169.55686436215129</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>159.03</v>
+        <v>171.39987375739207</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>150.47999999999999</v>
+        <v>162.18482678118818</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>136.97451779582144</v>
+        <v>147.628843980277</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5223,99 +5223,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>160.65919958920378</v>
+        <v>173.15579782150024</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>156.6</v>
+        <v>168.78086040626044</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>154.80000000000001</v>
+        <v>166.84085051653332</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.2800474983151</v>
+        <v>179.21385367279359</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.49013126223562</v>
+        <v>185.90697807170454</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>194.00098897271315</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.4</v>
+        <v>190.1209691932589</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>192.06097908298605</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180</v>
+        <v>194.00098897271315</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.8</v>
+        <v>186.24094941380463</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162</v>
+        <v>174.60089007544184</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>180.42091974462323</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>169.20000000000002</v>
+        <v>182.36092963435038</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>180.42091974462323</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>165.6</v>
+        <v>178.48090985489608</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>167.4</v>
+        <v>180.42091974462323</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.4</v>
+        <v>170.7208702959876</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>144.18370294296994</v>
+        <v>155.39878313713368</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5324,99 +5324,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>168.69215956866398</v>
+        <v>181.81358771257527</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>164.43</v>
+        <v>177.21990342657347</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>162.54000000000002</v>
+        <v>175.18289304236001</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.59404987323086</v>
+        <v>188.17454635643327</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.11463782534742</v>
+        <v>195.20232697528979</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>203.70103842134881</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>185.22000000000003</v>
+        <v>199.62701765292186</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>187.11</v>
+        <v>201.66402803713532</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189</v>
+        <v>203.70103842134881</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>181.44000000000003</v>
+        <v>195.55299688449489</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.1</v>
+        <v>183.33093457921393</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>163.80000000000001</v>
+        <v>176.54089996516899</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>189.4419657318544</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>177.66000000000003</v>
+        <v>191.47897611606791</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>189.4419657318544</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>185.36794496342742</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>171.99</v>
+        <v>185.36794496342742</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>173.88</v>
+        <v>187.40495534764091</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>175.77</v>
+        <v>189.4419657318544</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>166.32000000000002</v>
+        <v>179.25691381078698</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>151.39288809011845</v>
+        <v>163.16872229399036</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5425,99 +5425,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Summer'!B$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>176.72511954812418</v>
+        <v>190.4713776036503</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Summer'!C$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Summer'!D$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Summer'!E$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>172.26000000000002</v>
+        <v>185.65894644688652</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Summer'!F$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Summer'!G$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>170.28000000000003</v>
+        <v>183.52493556818666</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Summer'!H$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.90805224814662</v>
+        <v>197.13523904007297</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Summer'!I$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>189.73914438845921</v>
+        <v>204.49767587887501</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Summer'!J$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Summer'!K$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>194.04000000000002</v>
+        <v>209.1330661125848</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Summer'!L$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>196.02000000000004</v>
+        <v>211.26707699128465</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Summer'!M$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>198.00000000000003</v>
+        <v>213.40108786998451</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Summer'!N$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>190.08000000000004</v>
+        <v>204.86504435518512</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Summer'!O$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>178.20000000000002</v>
+        <v>192.06097908298605</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Summer'!P$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>194.19498996168591</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Summer'!Q$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Summer'!R$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>186.12000000000003</v>
+        <v>200.59702259778544</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Summer'!S$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Summer'!T$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>194.19498996168591</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Summer'!U$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>180.18000000000004</v>
+        <v>194.19498996168591</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Summer'!V$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>182.16</v>
+        <v>196.3290008403857</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Summer'!W$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>184.14000000000001</v>
+        <v>198.46301171908559</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Summer'!X$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>174.24</v>
+        <v>187.79295732558634</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Summer'!Y$6*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>158.60207323726695</v>
+        <v>170.93866145084706</v>
       </c>
     </row>
   </sheetData>
@@ -5621,99 +5621,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>173.15579782150024</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>164.99329913594465</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>161.56890990859486</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>156.89928823493605</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>158.4558287928223</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>165.16140551619634</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>179.21385367279359</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>185.90697807170454</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>194.00098897271315</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>183.93951080653633</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>179.76175594916961</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>163.26242603557515</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>158.74223225547337</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>135.66807502536733</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>141.14709778912697</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>127.9912169938722</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>124.52324463090163</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>123.86327143435784</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>125.49452593902264</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>142.53553196676151</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>172.7573234386814</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>172.52695543611421</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>163.36204463127984</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$C$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>155.39878313713368</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5722,99 +5722,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.58471067749286</v>
+        <v>182.77556436713914</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.59055168651113</v>
+        <v>174.159593532386</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>158.2367855194326</v>
+        <v>170.54496045907234</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.66346801887096</v>
+        <v>165.61591535909915</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.18790718572484</v>
+        <v>167.25893039242354</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.75519111653134</v>
+        <v>174.33703915598502</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>175.51782791488816</v>
+        <v>189.17017887683767</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>182.07291633235982</v>
+        <v>196.23514352013257</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>190</v>
+        <v>204.77882169341945</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.14602522545653</v>
+        <v>194.15837251801054</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.05443050162074</v>
+        <v>189.74852016856789</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.89537533296965</v>
+        <v>172.33256081532932</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>155.46840399242595</v>
+        <v>167.56124515855521</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>132.87011778298407</v>
+        <v>143.20519030455438</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.23614365030969</v>
+        <v>148.98860322185624</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>125.35158381206071</v>
+        <v>135.10184016019844</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.95513334831028</v>
+        <v>131.44120266595169</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>121.30877114156424</v>
+        <v>130.74456429182214</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>122.9063833884271</v>
+        <v>132.46644404674612</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.59594338714336</v>
+        <v>150.4541726315816</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.19445425077831</v>
+        <v>182.35495251860812</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.96883725408392</v>
+        <v>182.11178629367609</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>159.99293943964827</v>
+        <v>172.43771377746205</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$D$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.19390866202383</v>
+        <v>164.03204886697443</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5823,99 +5823,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.51022176578198</v>
+        <v>192.39533091277804</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.09531756474857</v>
+        <v>183.32588792882737</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>166.56503738887642</v>
+        <v>179.52101100954982</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.7510189672326</v>
+        <v>174.33254248326227</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.35569177444719</v>
+        <v>176.06203199202477</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>170.26862222792772</v>
+        <v>183.51267279577371</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>184.75560833146122</v>
+        <v>199.12650408088177</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>191.65570140248403</v>
+        <v>206.56330896856059</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>200</v>
+        <v>215.55665441412572</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>189.62739497416479</v>
+        <v>204.3772342294848</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.32045315960079</v>
+        <v>199.7352843879662</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.31092140312595</v>
+        <v>181.40269559508349</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>163.65095157097468</v>
+        <v>176.38025806163708</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>139.86328187682534</v>
+        <v>150.74230558374146</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.51173015822073</v>
+        <v>156.8301086545855</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>131.94903559164285</v>
+        <v>142.21246332652467</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>128.37382457716873</v>
+        <v>138.3591607010018</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>127.69344330690973</v>
+        <v>137.62585714928647</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>129.37514040887064</v>
+        <v>139.43836215446959</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.94309830225617</v>
+        <v>158.37281329640169</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.09942552713505</v>
+        <v>191.95258159853486</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.86193395166728</v>
+        <v>191.696617151238</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.41362046278766</v>
+        <v>181.51338292364426</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$E$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.20411438107772</v>
+        <v>172.66531459681519</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5924,99 +5924,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.43573285407109</v>
+        <v>202.01509745841696</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.600083442986</v>
+        <v>192.49218232526877</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>174.89328925832024</v>
+        <v>188.4970615600273</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>169.83856991559423</v>
+        <v>183.04916960742537</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.52347636316955</v>
+        <v>184.86513359162601</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>178.78205333932411</v>
+        <v>192.6883064355624</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>193.99338874803428</v>
+        <v>209.08282928492585</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>201.23848647260823</v>
+        <v>216.89147441698864</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210</v>
+        <v>226.33448713483202</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>199.10876472287305</v>
+        <v>214.59609594095906</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>194.58647581758083</v>
+        <v>209.72204860736451</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.72646747328224</v>
+        <v>190.47283037483766</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>171.83349914952342</v>
+        <v>185.19927096471892</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>146.85644597066661</v>
+        <v>158.27942086292856</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>152.78731666613177</v>
+        <v>164.67161408731479</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>138.546487371225</v>
+        <v>149.3230864928509</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.79251580602718</v>
+        <v>145.2771187360519</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>134.07811547225521</v>
+        <v>144.50715000675081</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>135.84389742931418</v>
+        <v>146.41028026219308</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>154.29025321736898</v>
+        <v>166.29145396122178</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.0043968034918</v>
+        <v>201.55021067846161</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>186.75503064925064</v>
+        <v>201.28144800879988</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.83430148592706</v>
+        <v>190.58905206982649</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$F$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>168.2143201001316</v>
+        <v>181.29858032665595</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6025,99 +6025,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>196.3612439423602</v>
+        <v>211.63486400405588</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.10484932122344</v>
+        <v>201.65847672171014</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>183.22154112776408</v>
+        <v>197.47311211050484</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>177.92612086395587</v>
+        <v>191.76579673158849</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>179.69126095189193</v>
+        <v>193.66823519122727</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>187.29548445072052</v>
+        <v>201.86394007535111</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.23116916460737</v>
+        <v>219.03915448896998</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>210.82127154273243</v>
+        <v>227.21963986541667</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>220.00000000000003</v>
+        <v>237.11231985553832</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>208.59013447158128</v>
+        <v>224.81495765243329</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>203.85249847556088</v>
+        <v>219.70881282676285</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.14201354343857</v>
+        <v>199.54296515459185</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>180.01604672807215</v>
+        <v>194.01828386780079</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>153.84961006450789</v>
+        <v>165.81653614211564</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>160.06290317404282</v>
+        <v>172.51311952004409</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>145.14393915080714</v>
+        <v>156.43370965917714</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>141.21120703488563</v>
+        <v>152.19507677110201</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>140.46278763760071</v>
+        <v>151.38844286421514</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>142.3126544497577</v>
+        <v>153.38219836991655</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>161.6374081324818</v>
+        <v>174.21009462604187</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.90936807984858</v>
+        <v>211.14783975838836</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>195.64812734683403</v>
+        <v>210.86627886636182</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>185.25498250906645</v>
+        <v>199.6647212160087</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$2*Scenarios!$G$2*(1+[1]Main!$B$2)^(Scenarios!$B$4-2020)</f>
-        <v>176.22452581918552</v>
+        <v>189.93184605649674</v>
       </c>
     </row>
   </sheetData>
@@ -6221,99 +6221,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>17.315579782150024</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>16.499329913594465</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>16.156890990859484</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>15.689928823493604</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>15.845582879282233</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>16.516140551619632</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>17.92138536727936</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>18.590697807170454</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>19.400098897271317</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>18.393951080653633</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>17.97617559491696</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>16.326242603557514</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>15.874223225547336</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>13.566807502536735</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>14.114709778912696</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>12.799121699387221</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>12.452324463090163</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>12.386327143435784</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>12.549452593902265</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>14.253553196676153</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>17.275732343868139</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>17.25269554361142</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>16.336204463127984</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>15.539878313713368</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6322,99 +6322,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.958471067749286</v>
+        <v>18.277556436713912</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.159055168651115</v>
+        <v>17.415959353238602</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.82367855194326</v>
+        <v>17.054496045907232</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.366346801887095</v>
+        <v>16.561591535909912</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.518790718572484</v>
+        <v>16.725893039242354</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175519111653134</v>
+        <v>17.433703915598503</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.551782791488815</v>
+        <v>18.917017887683766</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.207291633235982</v>
+        <v>19.623514352013256</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19</v>
+        <v>20.477882169341942</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.014602522545655</v>
+        <v>19.415837251801054</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.605443050162076</v>
+        <v>18.97485201685679</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.989537533296964</v>
+        <v>17.233256081532929</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.546840399242594</v>
+        <v>16.756124515855522</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.287011778298407</v>
+        <v>14.320519030455438</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.823614365030968</v>
+        <v>14.898860322185623</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.535158381206072</v>
+        <v>13.510184016019844</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.195513334831031</v>
+        <v>13.144120266595172</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.130877114156425</v>
+        <v>13.074456429182217</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.290638338842712</v>
+        <v>13.246644404674614</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.959594338714338</v>
+        <v>15.045417263158162</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.919445425077829</v>
+        <v>18.235495251860812</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.896883725408394</v>
+        <v>18.211178629367613</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.999293943964828</v>
+        <v>17.243771377746206</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.219390866202382</v>
+        <v>16.403204886697441</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6423,99 +6423,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.851022176578198</v>
+        <v>19.239533091277806</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.009531756474857</v>
+        <v>18.332588792882738</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.656503738887643</v>
+        <v>17.952101100954984</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.175101896723259</v>
+        <v>17.433254248326225</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.335569177444722</v>
+        <v>17.606203199202479</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.026862222792772</v>
+        <v>18.351267279577371</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.475560833146123</v>
+        <v>19.912650408088176</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.165570140248402</v>
+        <v>20.656330896856058</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20</v>
+        <v>21.555665441412572</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.962739497416479</v>
+        <v>20.43772342294848</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.53204531596008</v>
+        <v>19.97352843879662</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.831092140312595</v>
+        <v>18.140269559508351</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.365095157097468</v>
+        <v>17.638025806163707</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.986328187682535</v>
+        <v>15.074230558374147</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.551173015822073</v>
+        <v>15.68301086545855</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.194903559164286</v>
+        <v>14.221246332652468</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.837382457716874</v>
+        <v>13.835916070100181</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.769344330690974</v>
+        <v>13.762585714928649</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>12.937514040887065</v>
+        <v>13.943836215446961</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.694309830225619</v>
+        <v>15.83728132964017</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.809942552713505</v>
+        <v>19.195258159853484</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.78619339516673</v>
+        <v>19.169661715123802</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.841362046278768</v>
+        <v>18.151338292364429</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.020411438107772</v>
+        <v>17.26653145968152</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6524,99 +6524,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.743573285407109</v>
+        <v>20.201509745841697</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.860008344298599</v>
+        <v>19.249218232526875</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.489328925832027</v>
+        <v>18.849706156002735</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.983856991559424</v>
+        <v>18.304916960742538</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.152347636316957</v>
+        <v>18.486513359162604</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.87820533393241</v>
+        <v>19.268830643556239</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.39933887480343</v>
+        <v>20.908282928492589</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.123848647260822</v>
+        <v>21.689147441698861</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21</v>
+        <v>22.633448713483201</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.910876472287303</v>
+        <v>21.459609594095905</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.458647581758083</v>
+        <v>20.972204860736451</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.672646747328226</v>
+        <v>19.047283037483769</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.183349914952341</v>
+        <v>18.519927096471893</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.685644597066663</v>
+        <v>15.827942086292856</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.278731666613178</v>
+        <v>16.467161408731478</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.854648737122501</v>
+        <v>14.932308649285092</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.479251580602718</v>
+        <v>14.52771187360519</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.407811547225522</v>
+        <v>14.450715000675082</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>13.584389742931418</v>
+        <v>14.64102802621931</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.4290253217369</v>
+        <v>16.62914539612218</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.700439680349181</v>
+        <v>20.15502106784616</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.675503064925067</v>
+        <v>20.128144800879994</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.683430148592706</v>
+        <v>19.058905206982647</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.821432010013162</v>
+        <v>18.129858032665595</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -6625,99 +6625,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.63612439423602</v>
+        <v>21.163486400405588</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.710484932122345</v>
+        <v>20.165847672171015</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.32215411277641</v>
+        <v>19.747311211050484</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.792612086395586</v>
+        <v>19.176579673158848</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.969126095189196</v>
+        <v>19.366823519122729</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.729548445072052</v>
+        <v>20.18639400753511</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.323116916460737</v>
+        <v>21.903915448896999</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>21.082127154273245</v>
+        <v>22.721963986541667</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>22</v>
+        <v>23.71123198555383</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.859013447158127</v>
+        <v>22.481495765243327</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>20.385249847556089</v>
+        <v>21.970881282676284</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.514201354343857</v>
+        <v>19.954296515459188</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.001604672807215</v>
+        <v>19.401828386780078</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>15.384961006450789</v>
+        <v>16.581653614211564</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.006290317404282</v>
+        <v>17.251311952004407</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.514393915080717</v>
+        <v>15.643370965917716</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.121120703488563</v>
+        <v>15.219507677110201</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.046278763760071</v>
+        <v>15.138844286421515</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>14.231265444975772</v>
+        <v>15.338219836991659</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>16.163740813248182</v>
+        <v>17.421009462604189</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.590936807984857</v>
+        <v>21.114783975838836</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>19.564812734683404</v>
+        <v>21.086627886636183</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>18.525498250906647</v>
+        <v>19.966472121600873</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$3*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>17.622452581918552</v>
+        <v>18.993184605649674</v>
       </c>
     </row>
   </sheetData>
@@ -6821,99 +6821,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>34.631159564300049</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>34.631159564300049</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>34.920178015088368</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>35.308179993033789</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>34.631159564300049</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>38.800197794542633</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>35.308179993033789</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>34.532176037142939</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>33.36817010330666</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.816162191524956</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>31.040158235634106</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>31.428160213579538</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.816162191524956</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>32.59216614741581</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>32.204164169470381</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>31.816162191524956</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>32.980168125361239</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$C$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>34.144174059197518</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6922,99 +6922,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>36.555112873427824</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>36.555112873427824</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.199999999999996</v>
+        <v>36.860187904815497</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>37.269745548202337</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.916942135498573</v>
+        <v>36.555112873427824</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38</v>
+        <v>40.955764338683885</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.58</v>
+        <v>37.269745548202337</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.82</v>
+        <v>36.450630261428664</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.68</v>
+        <v>35.221957331268143</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>33.583726757720783</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.4</v>
+        <v>32.764611470947109</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>30.780000000000005</v>
+        <v>33.174169114333957</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>33.583726757720783</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.919999999999998</v>
+        <v>34.402842044494463</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.539999999999996</v>
+        <v>33.993284401107623</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>31.159999999999997</v>
+        <v>33.583726757720783</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.299999999999997</v>
+        <v>34.812399687881303</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$D$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.44</v>
+        <v>36.041072618041817</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7023,99 +7023,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>38.479066182555613</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>38.479066182555613</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36</v>
+        <v>38.800197794542633</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>39.231311103370878</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.702044353156396</v>
+        <v>38.479066182555613</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40</v>
+        <v>43.111330882825143</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.4</v>
+        <v>39.231311103370878</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.6</v>
+        <v>38.369084485714382</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.4</v>
+        <v>37.075744559229626</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>35.351291323916612</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32</v>
+        <v>34.489064706260116</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.400000000000006</v>
+        <v>34.920178015088375</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>35.351291323916612</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.199999999999996</v>
+        <v>35.782404632744864</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>32.799999999999997</v>
+        <v>35.351291323916612</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34</v>
+        <v>36.644631250401375</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$E$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.93797117688613</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7124,99 +7124,99 @@
       </c>
       <c r="B5" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>40.403019491683395</v>
       </c>
       <c r="C5" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>40.403019491683395</v>
       </c>
       <c r="D5" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.800000000000004</v>
+        <v>40.74020768426977</v>
       </c>
       <c r="E5" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>41.192876658539426</v>
       </c>
       <c r="F5" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.487146570814218</v>
+        <v>40.403019491683395</v>
       </c>
       <c r="G5" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>42</v>
+        <v>45.266897426966402</v>
       </c>
       <c r="H5" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.22</v>
+        <v>41.192876658539426</v>
       </c>
       <c r="I5" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.380000000000003</v>
+        <v>40.287538710000099</v>
       </c>
       <c r="J5" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.119999999999997</v>
+        <v>38.929531787191102</v>
       </c>
       <c r="K5" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="L5" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>37.118855890112449</v>
       </c>
       <c r="M5" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>33.6</v>
+        <v>36.213517941573123</v>
       </c>
       <c r="N5" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.02000000000001</v>
+        <v>36.6661869158428</v>
       </c>
       <c r="O5" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>37.118855890112449</v>
       </c>
       <c r="P5" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="Q5" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="R5" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="S5" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="T5" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="U5" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.28</v>
+        <v>38.024193838651776</v>
       </c>
       <c r="V5" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.86</v>
+        <v>37.571524864382113</v>
       </c>
       <c r="W5" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>34.44</v>
+        <v>37.118855890112449</v>
       </c>
       <c r="X5" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.700000000000003</v>
+        <v>38.476862812921446</v>
       </c>
       <c r="Y5" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$F$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7225,99 +7225,99 @@
       </c>
       <c r="B6" s="2">
         <f>'[1]Market Costs, Winter'!B$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>42.326972800811177</v>
       </c>
       <c r="C6" s="2">
         <f>'[1]Market Costs, Winter'!C$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>42.326972800811177</v>
       </c>
       <c r="D6" s="2">
         <f>'[1]Market Costs, Winter'!D$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.6</v>
+        <v>42.680217573996899</v>
       </c>
       <c r="E6" s="2">
         <f>'[1]Market Costs, Winter'!E$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>43.154442213707966</v>
       </c>
       <c r="F6" s="2">
         <f>'[1]Market Costs, Winter'!F$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.272248788472041</v>
+        <v>42.326972800811177</v>
       </c>
       <c r="G6" s="2">
         <f>'[1]Market Costs, Winter'!G$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>44</v>
+        <v>47.422463971107661</v>
       </c>
       <c r="H6" s="2">
         <f>'[1]Market Costs, Winter'!H$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>40.04</v>
+        <v>43.154442213707966</v>
       </c>
       <c r="I6" s="2">
         <f>'[1]Market Costs, Winter'!I$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>39.160000000000004</v>
+        <v>42.205992934285824</v>
       </c>
       <c r="J6" s="2">
         <f>'[1]Market Costs, Winter'!J$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.840000000000003</v>
+        <v>40.783319015152593</v>
       </c>
       <c r="K6" s="2">
         <f>'[1]Market Costs, Winter'!K$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="L6" s="2">
         <f>'[1]Market Costs, Winter'!L$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>38.886420456308279</v>
       </c>
       <c r="M6" s="2">
         <f>'[1]Market Costs, Winter'!M$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.200000000000003</v>
+        <v>37.93797117688613</v>
       </c>
       <c r="N6" s="2">
         <f>'[1]Market Costs, Winter'!N$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>35.640000000000008</v>
+        <v>38.412195816597212</v>
       </c>
       <c r="O6" s="2">
         <f>'[1]Market Costs, Winter'!O$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>38.886420456308279</v>
       </c>
       <c r="P6" s="2">
         <f>'[1]Market Costs, Winter'!P$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="Q6" s="2">
         <f>'[1]Market Costs, Winter'!Q$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="R6" s="2">
         <f>'[1]Market Costs, Winter'!R$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="S6" s="2">
         <f>'[1]Market Costs, Winter'!S$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="T6" s="2">
         <f>'[1]Market Costs, Winter'!T$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="U6" s="2">
         <f>'[1]Market Costs, Winter'!U$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.960000000000008</v>
+        <v>39.834869735730443</v>
       </c>
       <c r="V6" s="2">
         <f>'[1]Market Costs, Winter'!V$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.519999999999996</v>
+        <v>39.360645096019354</v>
       </c>
       <c r="W6" s="2">
         <f>'[1]Market Costs, Winter'!W$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>36.08</v>
+        <v>38.886420456308279</v>
       </c>
       <c r="X6" s="2">
         <f>'[1]Market Costs, Winter'!X$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>37.400000000000006</v>
+        <v>40.309094375441518</v>
       </c>
       <c r="Y6" s="2">
         <f>'[1]Market Costs, Winter'!Y$4*Scenarios!$G$2*(1+[1]Main!$B$3)^(Scenarios!$B$4-2020)</f>
-        <v>38.720000000000006</v>
+        <v>41.731768294574749</v>
       </c>
     </row>
   </sheetData>
